--- a/Excel数据看板/数据看板case-one.xlsx
+++ b/Excel数据看板/数据看板case-one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25782\Desktop\数据分析\EXCEL可视化练习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A24A8C-DBAE-4FDB-BA80-2810F1ECB5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFE0EC5-8199-456C-90A0-66A73F692313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="源数据" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -317,7 +317,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -352,7 +351,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[exercise1.xlsx]源数据!数据透视表3</c:name>
+    <c:name>[数据看板case-one.xlsx]源数据!数据透视表3</c:name>
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
@@ -1323,7 +1322,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[exercise1.xlsx]源数据!数据透视表1</c:name>
+    <c:name>[数据看板case-one.xlsx]源数据!数据透视表1</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -1866,7 +1865,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[exercise1.xlsx]源数据!数据透视表2</c:name>
+    <c:name>[数据看板case-one.xlsx]源数据!数据透视表2</c:name>
     <c:fmtId val="12"/>
   </c:pivotSource>
   <c:chart>
@@ -4498,7 +4497,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="4617385" y="109839"/>
-            <a:ext cx="1714642" cy="495521"/>
+            <a:ext cx="2180319" cy="495521"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4695,8 +4694,8 @@
           <a:chExt cx="1296000" cy="4265750"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="13" name="项目">
@@ -4719,7 +4718,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -4758,8 +4757,8 @@
           </xdr:sp>
         </mc:Fallback>
       </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="14" name="子公司">
@@ -4782,7 +4781,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -5681,6 +5680,120 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{817C699F-DD0C-46CF-8B69-C0BD255BDD43}" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="L6:N14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="3"/>
+        <item h="1" x="7"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="求和项:完成" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="求和项:目标" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="12" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E23EB07-4A01-4821-9A58-A6DA7D8C99D8}" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="I20:K29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
@@ -5797,7 +5910,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA4605F0-48B0-4421-88EE-980191A5024F}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="I6:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
@@ -5876,120 +5989,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{817C699F-DD0C-46CF-8B69-C0BD255BDD43}" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
-  <location ref="L6:N14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="7">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="3"/>
-        <item h="1" x="7"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item x="1"/>
-        <item h="1" x="4"/>
-        <item h="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="求和项:完成" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="求和项:目标" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="12" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -6323,8 +6322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6547,10 +6546,10 @@
       <c r="L7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7">
         <v>674</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7">
         <v>2462</v>
       </c>
     </row>
@@ -6586,10 +6585,10 @@
       <c r="L8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8">
         <v>2555</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8">
         <v>3452</v>
       </c>
     </row>
@@ -6625,10 +6624,10 @@
       <c r="L9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9">
         <v>1111</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9">
         <v>5245</v>
       </c>
     </row>
@@ -6664,10 +6663,10 @@
       <c r="L10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10">
         <v>1895</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10">
         <v>6246</v>
       </c>
     </row>
@@ -6703,10 +6702,10 @@
       <c r="L11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11">
         <v>1568</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11">
         <v>6246</v>
       </c>
     </row>
@@ -6742,10 +6741,10 @@
       <c r="L12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12">
         <v>1300</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12">
         <v>3455</v>
       </c>
     </row>
@@ -6781,10 +6780,10 @@
       <c r="L13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13">
         <v>1200</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13">
         <v>6365</v>
       </c>
     </row>
@@ -6820,10 +6819,10 @@
       <c r="L14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14">
         <v>10303</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14">
         <v>33471</v>
       </c>
     </row>
@@ -7012,10 +7011,10 @@
       <c r="I21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21">
         <v>1456</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21">
         <v>7453</v>
       </c>
     </row>
@@ -7045,10 +7044,10 @@
       <c r="I22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22">
         <v>6534</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22">
         <v>7234</v>
       </c>
     </row>
@@ -7078,10 +7077,10 @@
       <c r="I23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23">
         <v>1200</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23">
         <v>4525</v>
       </c>
     </row>
@@ -7111,10 +7110,10 @@
       <c r="I24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24">
         <v>4467</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24">
         <v>7846</v>
       </c>
     </row>
@@ -7144,10 +7143,10 @@
       <c r="I25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25">
         <v>3467</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25">
         <v>7345</v>
       </c>
     </row>
@@ -7177,10 +7176,10 @@
       <c r="I26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26">
         <v>1895</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26">
         <v>6246</v>
       </c>
     </row>
@@ -7210,10 +7209,10 @@
       <c r="I27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27">
         <v>2467</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27">
         <v>4524</v>
       </c>
     </row>
@@ -7243,10 +7242,10 @@
       <c r="I28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28">
         <v>3447</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28">
         <v>8467</v>
       </c>
     </row>
@@ -7276,10 +7275,10 @@
       <c r="I29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29">
         <v>24933</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29">
         <v>53640</v>
       </c>
     </row>
@@ -7966,8 +7965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C00829-B267-4B0E-8007-4CF068998E68}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
